--- a/biology/Zoologie/Lac_Boivin_(Granby)/Lac_Boivin_(Granby).xlsx
+++ b/biology/Zoologie/Lac_Boivin_(Granby)/Lac_Boivin_(Granby).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le lac Boivin est un lac situé dans la ville de Granby, en Estrie au Québec (Canada).
-Alimenté par la rivière Yamaska Nord et le réservoir Choinière, le lac Boivin est situé directement dans la ville de Granby et sert à la fois de lieu de conservation de la nature, de lieu de loisir et de tourisme. À proximité du lac se retrouve le centre d'interprétation de la nature du lac Boivin qui inclut 9,7 kilomètres de sentier, 2 tours d'observation et 400 mètres de passerelles[2]. Une zone marécageuse est situé au Nord-Est du lac et le réservoir Lemieux est situé au Sud-Est.
+Alimenté par la rivière Yamaska Nord et le réservoir Choinière, le lac Boivin est situé directement dans la ville de Granby et sert à la fois de lieu de conservation de la nature, de lieu de loisir et de tourisme. À proximité du lac se retrouve le centre d'interprétation de la nature du lac Boivin qui inclut 9,7 kilomètres de sentier, 2 tours d'observation et 400 mètres de passerelles. Une zone marécageuse est situé au Nord-Est du lac et le réservoir Lemieux est situé au Sud-Est.
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le lac Boivin fut créé à la suite de la construction de divers barrages sur la rivière Yamaska Nord au début du XIXe siècle qui offrait un potentiel hydraulique intéressant des industriels américains à installer des usines et manufactures à Granby. Le lac porte alors le nom de lac Granby[3].
-Vers la fin du XIXe siècle, divers problèmes de pollution surviennent à la suite de la création de davantage de manufactures et d'un réseau d'égouts municipaux, alors que la ville compte 3 500 habitants. Les égouts se déverseront directement dans la rivière Yamaska jusqu'en 1985, lors de l'installation d'une usine d'épuration[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le lac Boivin fut créé à la suite de la construction de divers barrages sur la rivière Yamaska Nord au début du XIXe siècle qui offrait un potentiel hydraulique intéressant des industriels américains à installer des usines et manufactures à Granby. Le lac porte alors le nom de lac Granby.
+Vers la fin du XIXe siècle, divers problèmes de pollution surviennent à la suite de la création de davantage de manufactures et d'un réseau d'égouts municipaux, alors que la ville compte 3 500 habitants. Les égouts se déverseront directement dans la rivière Yamaska jusqu'en 1985, lors de l'installation d'une usine d'épuration.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Environnement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le lac Boivin est reconnu comme une Zone importante pour la conservation des oiseaux (ZICO) et vise notamment le canard noir[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le lac Boivin est reconnu comme une Zone importante pour la conservation des oiseaux (ZICO) et vise notamment le canard noir.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Toponymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le lac Granby a été rebaptise en lac Boivin en 1980 en l'honneur de Pierre-Horace Boivin[3], maire de la ville de Granby de 1939 à 1964 et fondateur du zoo de Granby.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le lac Granby a été rebaptise en lac Boivin en 1980 en l'honneur de Pierre-Horace Boivin, maire de la ville de Granby de 1939 à 1964 et fondateur du zoo de Granby.
 Ce changement de nom a été fait lors de la création par Paul-Olivier Trépanier du Comité d'aménagement du Lac Boivin devenu depuis le Centre d'interprétation de la nature du lac Boivin.
 </t>
         </is>
